--- a/e-list/mechlanburger_town_level.xlsx
+++ b/e-list/mechlanburger_town_level.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="327">
   <si>
-    <t xml:space="preserve">Tile_URL</t>
+    <t xml:space="preserve">Title_URL</t>
   </si>
   <si>
     <t xml:space="preserve">Field2_links</t>
@@ -1101,10 +1101,10 @@
   <dimension ref="A1:B326"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="107.9"/>
   </cols>
